--- a/PCB/Project Outputs for Fingerboard/Fingerboard.xlsx
+++ b/PCB/Project Outputs for Fingerboard/Fingerboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Fingerboard" sheetId="1" r:id="rId1"/>
